--- a/Genesofinterest_TAN_with_DEFAULTcutoff_excel.xlsx
+++ b/Genesofinterest_TAN_with_DEFAULTcutoff_excel.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Bureaublad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fe7511e01eadebe/Academic/R_coding/ResearchProject1/CardiomyopathyGroup2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02CBFC4E-C2C0-4B32-9473-AA1274D58727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{02CBFC4E-C2C0-4B32-9473-AA1274D58727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5698CADD-8B2C-4865-B0A3-B1952A4B164C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22992" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TanModule_cluster1_Defaultcutof" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1549,13 +1560,13 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">Gene of Interest? </t>
+    <t>Gene of Interest?  (Degree &gt; 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2503,11 +2514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2741,7 +2752,7 @@
     </row>
     <row r="2" spans="1:69" s="4" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="b">
-        <f>IF(C2&gt;5,TRUE,FALSE)</f>
+        <f t="shared" ref="A2:A33" si="0">IF(C2&gt;5,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2870,7 +2881,7 @@
     </row>
     <row r="3" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="b">
-        <f>IF(C3&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3068,7 +3079,7 @@
     </row>
     <row r="4" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="b">
-        <f>IF(C4&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3197,7 +3208,7 @@
     </row>
     <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="b">
-        <f>IF(C5&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3329,7 +3340,7 @@
     </row>
     <row r="6" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="b">
-        <f>IF(C6&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3530,7 +3541,7 @@
     </row>
     <row r="7" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="b">
-        <f>IF(C7&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3665,7 +3676,7 @@
     </row>
     <row r="8" spans="1:69" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="b">
-        <f>IF(C8&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3860,7 +3871,7 @@
     </row>
     <row r="9" spans="1:69" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="b">
-        <f>IF(C9&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3995,7 +4006,7 @@
     </row>
     <row r="10" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="b">
-        <f>IF(C10&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4127,7 +4138,7 @@
     </row>
     <row r="11" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="b">
-        <f>IF(C11&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4262,7 +4273,7 @@
     </row>
     <row r="12" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="b">
-        <f>IF(C12&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4397,7 +4408,7 @@
     </row>
     <row r="13" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="b">
-        <f>IF(C13&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4604,7 +4615,7 @@
     </row>
     <row r="14" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="b">
-        <f>IF(C14&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4787,7 +4798,7 @@
     </row>
     <row r="15" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="b">
-        <f>IF(C15&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4913,7 +4924,7 @@
     </row>
     <row r="16" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="b">
-        <f>IF(C16&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5114,7 +5125,7 @@
     </row>
     <row r="17" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="b">
-        <f>IF(C17&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5243,7 +5254,7 @@
     </row>
     <row r="18" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="b">
-        <f>IF(C18&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5432,7 +5443,7 @@
     </row>
     <row r="19" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="b">
-        <f>IF(C19&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5564,7 +5575,7 @@
     </row>
     <row r="20" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="b">
-        <f>IF(C20&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5750,7 +5761,7 @@
     </row>
     <row r="21" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="b">
-        <f>IF(C21&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5942,7 +5953,7 @@
     </row>
     <row r="22" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="b">
-        <f>IF(C22&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6077,7 +6088,7 @@
     </row>
     <row r="23" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="b">
-        <f>IF(C23&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6284,7 +6295,7 @@
     </row>
     <row r="24" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="b">
-        <f>IF(C24&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6476,7 +6487,7 @@
     </row>
     <row r="25" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="b">
-        <f>IF(C25&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6611,7 +6622,7 @@
     </row>
     <row r="26" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="b">
-        <f>IF(C26&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -6746,7 +6757,7 @@
     </row>
     <row r="27" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="b">
-        <f>IF(C27&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -6881,7 +6892,7 @@
     </row>
     <row r="28" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="b">
-        <f>IF(C28&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -7040,7 +7051,7 @@
     </row>
     <row r="29" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="b">
-        <f>IF(C29&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7172,7 +7183,7 @@
     </row>
     <row r="30" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="b">
-        <f>IF(C30&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7295,7 +7306,7 @@
     </row>
     <row r="31" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="b">
-        <f>IF(C31&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7499,7 +7510,7 @@
     </row>
     <row r="32" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="b">
-        <f>IF(C32&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -7634,7 +7645,7 @@
     </row>
     <row r="33" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="b">
-        <f>IF(C33&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -7766,7 +7777,7 @@
     </row>
     <row r="34" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="b">
-        <f>IF(C34&gt;5,TRUE,FALSE)</f>
+        <f t="shared" ref="A34:A55" si="1">IF(C34&gt;5,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7901,7 +7912,7 @@
     </row>
     <row r="35" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="b">
-        <f>IF(C35&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -8033,7 +8044,7 @@
     </row>
     <row r="36" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="b">
-        <f>IF(C36&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -8159,7 +8170,7 @@
     </row>
     <row r="37" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="b">
-        <f>IF(C37&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -8354,7 +8365,7 @@
     </row>
     <row r="38" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="b">
-        <f>IF(C38&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -8489,7 +8500,7 @@
     </row>
     <row r="39" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="b">
-        <f>IF(C39&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -8681,7 +8692,7 @@
     </row>
     <row r="40" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="b">
-        <f>IF(C40&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -8885,7 +8896,7 @@
     </row>
     <row r="41" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="b">
-        <f>IF(C41&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -9059,7 +9070,7 @@
     </row>
     <row r="42" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="b">
-        <f>IF(C42&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -9227,7 +9238,7 @@
     </row>
     <row r="43" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="b">
-        <f>IF(C43&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -9401,7 +9412,7 @@
     </row>
     <row r="44" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="b">
-        <f>IF(C44&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -9584,7 +9595,7 @@
     </row>
     <row r="45" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="b">
-        <f>IF(C45&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -9716,7 +9727,7 @@
     </row>
     <row r="46" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="b">
-        <f>IF(C46&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -9908,7 +9919,7 @@
     </row>
     <row r="47" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="b">
-        <f>IF(C47&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -10028,7 +10039,7 @@
     </row>
     <row r="48" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="b">
-        <f>IF(C48&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -10217,7 +10228,7 @@
     </row>
     <row r="49" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="b">
-        <f>IF(C49&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -10349,7 +10360,7 @@
     </row>
     <row r="50" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="b">
-        <f>IF(C50&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -10532,7 +10543,7 @@
     </row>
     <row r="51" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="b">
-        <f>IF(C51&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -10727,7 +10738,7 @@
     </row>
     <row r="52" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="b">
-        <f>IF(C52&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -10913,7 +10924,7 @@
     </row>
     <row r="53" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="b">
-        <f>IF(C53&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -11045,7 +11056,7 @@
     </row>
     <row r="54" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="b">
-        <f>IF(C54&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -11177,7 +11188,7 @@
     </row>
     <row r="55" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="b">
-        <f>IF(C55&gt;5,TRUE,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
